--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2092470.264160006</v>
+        <v>2091938.944129426</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5847064.839940802</v>
+        <v>5847064.839940803</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>418.9739502356786</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>29.22939890189204</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.03507684160936</v>
+        <v>100.176219543324</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8391902788997</v>
+        <v>163.7934349246008</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1059,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>78.96873359425075</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>59.95990296671395</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.4558401084531</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>27.18442331492829</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H11" t="n">
-        <v>286.1292424873029</v>
+        <v>286.129242487303</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T11" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463371</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>112.8906238624954</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T13" t="n">
         <v>243.400138899798</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1292424873029</v>
+        <v>286.129242487303</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T14" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463371</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284548</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430772</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
-        <v>25.8712094667017</v>
+        <v>22.74710563292924</v>
       </c>
       <c r="I16" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.400138899798</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H17" t="n">
-        <v>286.1292424873029</v>
+        <v>286.129242487303</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962438</v>
       </c>
       <c r="T17" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463371</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633442</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>121.1943588126136</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.11237900186402</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.5652879271376</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
-        <v>286.1292424873029</v>
+        <v>286.129242487303</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962438</v>
       </c>
       <c r="T20" t="n">
         <v>217.8197031463371</v>
@@ -2140,16 +2140,16 @@
         <v>256.6292234284552</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>8.124603117096454</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3485786376804</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G23" t="n">
         <v>397.3731502167427</v>
       </c>
       <c r="H23" t="n">
-        <v>286.1292424873029</v>
+        <v>286.129242487303</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962438</v>
       </c>
       <c r="T23" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463371</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284548</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655118</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>80.84099515913867</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>46.71172880324546</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2496,7 +2496,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I25" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>157.5652879271376</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U25" t="n">
         <v>275.6484088706061</v>
@@ -2721,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>37.72455887992374</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T28" t="n">
         <v>243.400138899798</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.759329748161308</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T31" t="n">
         <v>243.400138899798</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>35.98242176597043</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T34" t="n">
         <v>243.400138899798</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>57.68357131486579</v>
+        <v>29.11237900186403</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.5652879271376</v>
@@ -3480,7 +3480,7 @@
         <v>243.400138899798</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3520,7 +3520,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H38" t="n">
-        <v>286.1292424873031</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>217.819703146337</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3678,10 +3678,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T40" t="n">
         <v>243.400138899798</v>
@@ -3720,10 +3720,10 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>171.4966945660326</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3796,13 +3796,13 @@
         <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9305612960722</v>
+        <v>29.11237900186403</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.5652879271376</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.15050765901762</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948853</v>
       </c>
       <c r="G44" t="n">
         <v>397.3731502167427</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>12.25446553279433</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T46" t="n">
-        <v>243.400138899798</v>
+        <v>214.772152515016</v>
       </c>
       <c r="U46" t="n">
         <v>275.6484088706061</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587.4583232833319</v>
+        <v>545.2299034413993</v>
       </c>
       <c r="C2" t="n">
-        <v>553.3562545071593</v>
+        <v>511.1278346652267</v>
       </c>
       <c r="D2" t="n">
-        <v>521.4868737220079</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>491.7525329207071</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>63.88510332991484</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
         <v>34.36045797446834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X2" t="n">
-        <v>613.9632093877782</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y2" t="n">
-        <v>609.7174897278356</v>
+        <v>567.4890698859031</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>936.2947751752459</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C4" t="n">
-        <v>763.7330636584709</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D4" t="n">
-        <v>597.8550708599936</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1653.597487995201</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1495.276687718524</v>
+        <v>1595.995329531605</v>
       </c>
       <c r="V4" t="n">
-        <v>1208.321179588954</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="W4" t="n">
-        <v>936.2947751752459</v>
+        <v>1037.013416988327</v>
       </c>
       <c r="X4" t="n">
-        <v>936.2947751752459</v>
+        <v>791.6216623217397</v>
       </c>
       <c r="Y4" t="n">
-        <v>936.2947751752459</v>
+        <v>564.2019916358479</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.054235181935</v>
+        <v>1783.588099333099</v>
       </c>
       <c r="C5" t="n">
-        <v>826.9117623653581</v>
+        <v>1345.445626516522</v>
       </c>
       <c r="D5" t="n">
-        <v>795.0423815802067</v>
+        <v>909.5358416909669</v>
       </c>
       <c r="E5" t="n">
-        <v>361.2676367385018</v>
+        <v>475.761096849262</v>
       </c>
       <c r="F5" t="n">
-        <v>337.4406111881136</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="G5" t="n">
-        <v>337.4406111881136</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="H5" t="n">
-        <v>48.31045663132985</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="I5" t="n">
-        <v>47.89366725846985</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="J5" t="n">
-        <v>483.1483547113878</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="K5" t="n">
-        <v>483.1483547113878</v>
+        <v>640.577799582033</v>
       </c>
       <c r="L5" t="n">
-        <v>483.1483547113878</v>
+        <v>640.577799582033</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6622475647121</v>
+        <v>640.577799582033</v>
       </c>
       <c r="N5" t="n">
-        <v>493.6622475647121</v>
+        <v>662.8163123177667</v>
       </c>
       <c r="O5" t="n">
-        <v>1086.346379888276</v>
+        <v>1255.50044464133</v>
       </c>
       <c r="P5" t="n">
-        <v>1679.030512211841</v>
+        <v>1848.184576964893</v>
       </c>
       <c r="Q5" t="n">
-        <v>2225.529298170436</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="R5" t="n">
-        <v>2394.683362923492</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="S5" t="n">
-        <v>2311.031489107329</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="T5" t="n">
-        <v>2090.964261980368</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.741959297385</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="V5" t="n">
-        <v>1469.125009231211</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="W5" t="n">
-        <v>1306.661180666666</v>
+        <v>2229.235448858235</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.559121286381</v>
+        <v>1810.092985437545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1287.313401626438</v>
+        <v>1805.847265777603</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554.0654122497626</v>
+        <v>554.0654122497625</v>
       </c>
       <c r="C6" t="n">
-        <v>447.6089510864049</v>
+        <v>447.6089510864048</v>
       </c>
       <c r="D6" t="n">
-        <v>352.5186622329582</v>
+        <v>352.5186622329581</v>
       </c>
       <c r="E6" t="n">
-        <v>258.3982475599119</v>
+        <v>258.3982475599118</v>
       </c>
       <c r="F6" t="n">
-        <v>175.0144091760735</v>
+        <v>175.0144091760734</v>
       </c>
       <c r="G6" t="n">
-        <v>89.62931944225738</v>
+        <v>89.6293194422573</v>
       </c>
       <c r="H6" t="n">
-        <v>47.89366725846985</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="I6" t="n">
-        <v>47.89366725846985</v>
+        <v>73.95734041892737</v>
       </c>
       <c r="J6" t="n">
-        <v>47.89366725846985</v>
+        <v>398.5156653851396</v>
       </c>
       <c r="K6" t="n">
-        <v>47.89366725846985</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5777995820341</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5777995820341</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5777995820341</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5777995820341</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="P6" t="n">
-        <v>1170.394490105203</v>
+        <v>1053.221712010863</v>
       </c>
       <c r="Q6" t="n">
-        <v>1711.133428737279</v>
+        <v>1593.960650642939</v>
       </c>
       <c r="R6" t="n">
         <v>1711.133428737279</v>
@@ -4685,13 +4685,13 @@
         <v>1142.045282578231</v>
       </c>
       <c r="W6" t="n">
-        <v>956.7225283114251</v>
+        <v>956.7225283114249</v>
       </c>
       <c r="X6" t="n">
-        <v>801.855092550305</v>
+        <v>801.8550925503049</v>
       </c>
       <c r="Y6" t="n">
-        <v>675.3693133295258</v>
+        <v>675.3693133295257</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.4136570129857</v>
+        <v>466.0997691436724</v>
       </c>
       <c r="C7" t="n">
-        <v>478.8519454962106</v>
+        <v>293.5380576268973</v>
       </c>
       <c r="D7" t="n">
-        <v>478.8519454962106</v>
+        <v>127.66006482842</v>
       </c>
       <c r="E7" t="n">
-        <v>478.8519454962106</v>
+        <v>127.66006482842</v>
       </c>
       <c r="F7" t="n">
-        <v>302.1448914579669</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="G7" t="n">
-        <v>136.5536164837945</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="H7" t="n">
-        <v>136.5536164837945</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="I7" t="n">
-        <v>47.89366725846985</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="J7" t="n">
-        <v>47.89366725846985</v>
+        <v>134.4733524231596</v>
       </c>
       <c r="K7" t="n">
-        <v>322.6521218296054</v>
+        <v>409.2318069942952</v>
       </c>
       <c r="L7" t="n">
-        <v>740.8620035975664</v>
+        <v>827.4416887622561</v>
       </c>
       <c r="M7" t="n">
-        <v>1200.345870778479</v>
+        <v>1286.925555943169</v>
       </c>
       <c r="N7" t="n">
-        <v>1642.604673936124</v>
+        <v>1459.314444863032</v>
       </c>
       <c r="O7" t="n">
-        <v>2062.273923161906</v>
+        <v>1878.983694088814</v>
       </c>
       <c r="P7" t="n">
-        <v>2226.49058805916</v>
+        <v>2226.490588059155</v>
       </c>
       <c r="Q7" t="n">
-        <v>2394.683362923492</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="R7" t="n">
-        <v>2373.265541628864</v>
+        <v>2373.26554162886</v>
       </c>
       <c r="S7" t="n">
-        <v>2214.024172926861</v>
+        <v>2214.024172926856</v>
       </c>
       <c r="T7" t="n">
-        <v>2153.458614374625</v>
+        <v>1968.144726505312</v>
       </c>
       <c r="U7" t="n">
-        <v>1875.02561362773</v>
+        <v>1689.711725758417</v>
       </c>
       <c r="V7" t="n">
-        <v>1588.070105498161</v>
+        <v>1402.756217628847</v>
       </c>
       <c r="W7" t="n">
-        <v>1316.043701084452</v>
+        <v>1130.729813215139</v>
       </c>
       <c r="X7" t="n">
-        <v>1070.651946417865</v>
+        <v>885.3380585485513</v>
       </c>
       <c r="Y7" t="n">
-        <v>843.2322757319728</v>
+        <v>657.9183878626595</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.5213804116895</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>832.4193116355168</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,7 +4807,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
         <v>1149.495958523325</v>
@@ -4816,16 +4816,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2087.376649238293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1716.209133977229</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1297.06667055654</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.820950896597</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1038.799596036619</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.639650578398</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1699.639650578398</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>987.3566790731575</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
         <v>959.897665623735</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1651.986723144624</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.594968478036</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1179.175297792145</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6503003533094</v>
+        <v>792.6503003533099</v>
       </c>
       <c r="G11" t="n">
-        <v>391.2632799323574</v>
+        <v>391.2632799323577</v>
       </c>
       <c r="H11" t="n">
         <v>102.243843076496</v>
@@ -5047,46 +5047,46 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L11" t="n">
-        <v>1375.768056541166</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M11" t="n">
-        <v>2435.48902000754</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N11" t="n">
-        <v>3563.110641697132</v>
+        <v>2582.930975126827</v>
       </c>
       <c r="O11" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787389</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q11" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534135</v>
       </c>
       <c r="R11" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824799</v>
       </c>
       <c r="S11" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T11" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495545</v>
       </c>
       <c r="U11" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V11" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X11" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y11" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I12" t="n">
         <v>128.5027079435546</v>
       </c>
       <c r="J12" t="n">
-        <v>453.5966538717915</v>
+        <v>405.7263028426318</v>
       </c>
       <c r="K12" t="n">
-        <v>1135.24563547872</v>
+        <v>406.6417643791834</v>
       </c>
       <c r="L12" t="n">
-        <v>1136.476586489585</v>
+        <v>407.8727153900477</v>
       </c>
       <c r="M12" t="n">
-        <v>1137.913048259055</v>
+        <v>409.309177159518</v>
       </c>
       <c r="N12" t="n">
-        <v>1139.387528897238</v>
+        <v>1644.610929358008</v>
       </c>
       <c r="O12" t="n">
-        <v>1140.736390618001</v>
+        <v>1645.95979107877</v>
       </c>
       <c r="P12" t="n">
-        <v>1141.818971066662</v>
+        <v>1647.042371527432</v>
       </c>
       <c r="Q12" t="n">
-        <v>1683.281586059109</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R12" t="n">
         <v>1765.290817548849</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1040.747029661091</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C13" t="n">
-        <v>868.1853181443163</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D13" t="n">
-        <v>754.1543849498764</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E13" t="n">
-        <v>584.3963812006136</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F13" t="n">
-        <v>407.6893271623698</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1029016107817</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J13" t="n">
         <v>189.1595596197742</v>
@@ -5223,28 +5223,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R13" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S13" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T13" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.967231609248</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V13" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W13" t="n">
-        <v>1459.98531906597</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X13" t="n">
-        <v>1459.98531906597</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y13" t="n">
-        <v>1232.565648380079</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611364</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F14" t="n">
-        <v>792.6503003533096</v>
+        <v>792.650300353311</v>
       </c>
       <c r="G14" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323576</v>
       </c>
       <c r="H14" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J14" t="n">
-        <v>538.3978373173468</v>
+        <v>103.1431498644289</v>
       </c>
       <c r="K14" t="n">
-        <v>1374.095957029401</v>
+        <v>104.4909776183048</v>
       </c>
       <c r="L14" t="n">
-        <v>1375.768056541166</v>
+        <v>296.4009853407613</v>
       </c>
       <c r="M14" t="n">
-        <v>2534.676424637641</v>
+        <v>1455.309353437235</v>
       </c>
       <c r="N14" t="n">
-        <v>3563.110641697132</v>
+        <v>2582.930975126827</v>
       </c>
       <c r="O14" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787389</v>
       </c>
       <c r="P14" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q14" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534135</v>
       </c>
       <c r="R14" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824799</v>
       </c>
       <c r="S14" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T14" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495545</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689025</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622851</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613195</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I15" t="n">
-        <v>128.5027079435546</v>
+        <v>102.439034783097</v>
       </c>
       <c r="J15" t="n">
-        <v>453.5966538717915</v>
+        <v>102.9746557451216</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.730097307415</v>
+        <v>103.8901172816733</v>
       </c>
       <c r="L15" t="n">
-        <v>1100.961048318279</v>
+        <v>939.1495985654958</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.397510087749</v>
+        <v>940.5860603349661</v>
       </c>
       <c r="N15" t="n">
-        <v>1103.871990725932</v>
+        <v>942.0605409731488</v>
       </c>
       <c r="O15" t="n">
-        <v>1105.220852446694</v>
+        <v>943.4094026939115</v>
       </c>
       <c r="P15" t="n">
-        <v>1106.303432895356</v>
+        <v>1764.215149621772</v>
       </c>
       <c r="Q15" t="n">
-        <v>1647.766047887803</v>
+        <v>1764.938825982143</v>
       </c>
       <c r="R15" t="n">
         <v>1765.290817548849</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1067.381679408212</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C16" t="n">
-        <v>894.8199678914372</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D16" t="n">
-        <v>728.9419750929599</v>
+        <v>637.2722007922869</v>
       </c>
       <c r="E16" t="n">
-        <v>559.1839713436971</v>
+        <v>467.5141970430241</v>
       </c>
       <c r="F16" t="n">
-        <v>382.4769173054533</v>
+        <v>290.8071430047803</v>
       </c>
       <c r="G16" t="n">
-        <v>216.8904917538652</v>
+        <v>125.2207174531922</v>
       </c>
       <c r="H16" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J16" t="n">
         <v>189.1595596197742</v>
@@ -5460,28 +5460,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R16" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S16" t="n">
-        <v>2543.258694003596</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T16" t="n">
-        <v>2297.399967842184</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.967231609248</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V16" t="n">
-        <v>1732.011723479679</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W16" t="n">
-        <v>1732.011723479679</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X16" t="n">
-        <v>1486.619968813091</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y16" t="n">
-        <v>1259.200298127199</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F17" t="n">
-        <v>792.6503003533094</v>
+        <v>792.6503003533099</v>
       </c>
       <c r="G17" t="n">
-        <v>391.2632799323574</v>
+        <v>391.2632799323576</v>
       </c>
       <c r="H17" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J17" t="n">
         <v>538.3978373173468</v>
@@ -5521,43 +5521,43 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L17" t="n">
-        <v>2450.828022794025</v>
+        <v>1622.602885304369</v>
       </c>
       <c r="M17" t="n">
-        <v>2452.688555679948</v>
+        <v>1624.463418190292</v>
       </c>
       <c r="N17" t="n">
-        <v>2582.930975126825</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O17" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540446</v>
       </c>
       <c r="P17" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213053</v>
       </c>
       <c r="Q17" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287192</v>
       </c>
       <c r="R17" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824799</v>
       </c>
       <c r="S17" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T17" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495545</v>
       </c>
       <c r="U17" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V17" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X17" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y17" t="n">
         <v>2954.644302912846</v>
@@ -5588,34 +5588,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I18" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J18" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K18" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L18" t="n">
-        <v>1059.664117103641</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M18" t="n">
-        <v>1061.100578873112</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N18" t="n">
-        <v>1062.575059511294</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O18" t="n">
-        <v>1063.923921232057</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P18" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q18" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R18" t="n">
         <v>1765.290817548849</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>795.3552749945038</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C19" t="n">
-        <v>622.7935634777288</v>
+        <v>643.9933370987061</v>
       </c>
       <c r="D19" t="n">
-        <v>622.7935634777288</v>
+        <v>478.1153443002288</v>
       </c>
       <c r="E19" t="n">
-        <v>453.035559728466</v>
+        <v>308.3573405509661</v>
       </c>
       <c r="F19" t="n">
-        <v>330.6170154733007</v>
+        <v>131.6502865127223</v>
       </c>
       <c r="G19" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H19" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J19" t="n">
         <v>189.1595596197742</v>
@@ -5697,28 +5697,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R19" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S19" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T19" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.967231609248</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V19" t="n">
-        <v>1732.011723479679</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W19" t="n">
-        <v>1459.98531906597</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X19" t="n">
-        <v>1214.593564399383</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y19" t="n">
-        <v>987.173893713491</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F20" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533098</v>
       </c>
       <c r="G20" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323576</v>
       </c>
       <c r="H20" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J20" t="n">
         <v>538.3978373173468</v>
@@ -5758,46 +5758,46 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L20" t="n">
-        <v>1445.734716664123</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M20" t="n">
-        <v>2604.643084760597</v>
+        <v>2750.194401626739</v>
       </c>
       <c r="N20" t="n">
-        <v>3732.264706450188</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O20" t="n">
-        <v>3734.049982540444</v>
+        <v>3734.049982540446</v>
       </c>
       <c r="P20" t="n">
-        <v>4563.883549213051</v>
+        <v>4563.883549213053</v>
       </c>
       <c r="Q20" t="n">
-        <v>5111.52656428719</v>
+        <v>5111.526564287192</v>
       </c>
       <c r="R20" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824799</v>
       </c>
       <c r="S20" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495545</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689025</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622851</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X20" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613195</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I21" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J21" t="n">
-        <v>102.9746557451216</v>
+        <v>129.0383289055792</v>
       </c>
       <c r="K21" t="n">
-        <v>397.179708922556</v>
+        <v>129.9537904421308</v>
       </c>
       <c r="L21" t="n">
-        <v>398.4106599334202</v>
+        <v>131.1847414529951</v>
       </c>
       <c r="M21" t="n">
-        <v>399.8471217028905</v>
+        <v>132.6212032224654</v>
       </c>
       <c r="N21" t="n">
-        <v>401.3216023410733</v>
+        <v>134.0956838606483</v>
       </c>
       <c r="O21" t="n">
-        <v>402.670464061836</v>
+        <v>285.4976859674962</v>
       </c>
       <c r="P21" t="n">
-        <v>1223.476210989696</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q21" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R21" t="n">
         <v>1765.290817548849</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.108203127648</v>
+        <v>795.3552749945038</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.546491610873</v>
+        <v>622.7935634777288</v>
       </c>
       <c r="D22" t="n">
-        <v>842.6684988123955</v>
+        <v>456.9155706792515</v>
       </c>
       <c r="E22" t="n">
-        <v>672.9104950631327</v>
+        <v>287.1575669299887</v>
       </c>
       <c r="F22" t="n">
-        <v>496.2034410248889</v>
+        <v>110.4505128917449</v>
       </c>
       <c r="G22" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H22" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J22" t="n">
         <v>189.1595596197742</v>
@@ -5949,13 +5949,13 @@
         <v>1732.011723479679</v>
       </c>
       <c r="W22" t="n">
-        <v>1732.011723479679</v>
+        <v>1459.98531906597</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.346492532527</v>
+        <v>1214.593564399383</v>
       </c>
       <c r="Y22" t="n">
-        <v>1372.926821846635</v>
+        <v>987.173893713491</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611364</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E23" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F23" t="n">
-        <v>792.6503003533096</v>
+        <v>792.650300353311</v>
       </c>
       <c r="G23" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323576</v>
       </c>
       <c r="H23" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J23" t="n">
         <v>538.3978373173468</v>
@@ -5998,43 +5998,43 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M23" t="n">
-        <v>2581.040336873681</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N23" t="n">
-        <v>2582.930975126825</v>
+        <v>2582.930975126827</v>
       </c>
       <c r="O23" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787389</v>
       </c>
       <c r="P23" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q23" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534135</v>
       </c>
       <c r="R23" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824799</v>
       </c>
       <c r="S23" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T23" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495545</v>
       </c>
       <c r="U23" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689025</v>
       </c>
       <c r="V23" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622851</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X23" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613195</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I24" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J24" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K24" t="n">
-        <v>397.179708922556</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L24" t="n">
-        <v>398.4106599334202</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M24" t="n">
-        <v>399.8471217028905</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N24" t="n">
-        <v>401.3216023410733</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O24" t="n">
-        <v>402.670464061836</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P24" t="n">
-        <v>1223.476210989696</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q24" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R24" t="n">
         <v>1765.290817548849</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.413774776893</v>
+        <v>926.7160964666515</v>
       </c>
       <c r="C25" t="n">
-        <v>889.8520632601181</v>
+        <v>754.1543849498764</v>
       </c>
       <c r="D25" t="n">
-        <v>842.6684988123955</v>
+        <v>754.1543849498764</v>
       </c>
       <c r="E25" t="n">
-        <v>672.9104950631327</v>
+        <v>584.3963812006136</v>
       </c>
       <c r="F25" t="n">
-        <v>496.2034410248889</v>
+        <v>407.6893271623699</v>
       </c>
       <c r="G25" t="n">
-        <v>330.6170154733007</v>
+        <v>242.1029016107817</v>
       </c>
       <c r="H25" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J25" t="n">
         <v>189.1595596197742</v>
@@ -6177,22 +6177,22 @@
         <v>2564.458467624573</v>
       </c>
       <c r="T25" t="n">
-        <v>2564.458467624573</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U25" t="n">
-        <v>2286.025731391638</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V25" t="n">
-        <v>1999.070223262068</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W25" t="n">
-        <v>1727.04381884836</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.652064181772</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.23239349588</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C26" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E26" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F26" t="n">
-        <v>792.6503003533094</v>
+        <v>792.6503003533098</v>
       </c>
       <c r="G26" t="n">
-        <v>391.2632799323574</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H26" t="n">
         <v>102.2438430764959</v>
@@ -6226,28 +6226,28 @@
         <v>102.2438430764959</v>
       </c>
       <c r="J26" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K26" t="n">
-        <v>763.6316451211825</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L26" t="n">
-        <v>1840.363710885808</v>
+        <v>1422.131968777207</v>
       </c>
       <c r="M26" t="n">
-        <v>2999.272078982282</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N26" t="n">
-        <v>4126.893700671873</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O26" t="n">
-        <v>5108.858643332435</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P26" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q26" t="n">
-        <v>5111.52656428719</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R26" t="n">
         <v>5112.192153824797</v>
@@ -6259,19 +6259,19 @@
         <v>4808.766732495543</v>
       </c>
       <c r="U26" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V26" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X26" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y26" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K27" t="n">
-        <v>1099.730097307415</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L27" t="n">
-        <v>1100.961048318279</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M27" t="n">
-        <v>1102.397510087749</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N27" t="n">
-        <v>1103.871990725932</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O27" t="n">
-        <v>1105.220852446694</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P27" t="n">
         <v>1106.303432895356</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>795.3552749945038</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C28" t="n">
-        <v>622.7935634777288</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D28" t="n">
-        <v>456.9155706792515</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E28" t="n">
-        <v>456.9155706792515</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F28" t="n">
-        <v>280.2085166410077</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1029016107817</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H28" t="n">
         <v>102.2438430764959</v>
@@ -6408,28 +6408,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R28" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S28" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T28" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U28" t="n">
-        <v>2018.967231609248</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V28" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W28" t="n">
-        <v>1459.98531906597</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X28" t="n">
-        <v>1214.593564399383</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y28" t="n">
-        <v>987.173893713491</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F29" t="n">
-        <v>792.6503003533094</v>
+        <v>792.6503003533103</v>
       </c>
       <c r="G29" t="n">
         <v>391.2632799323574</v>
       </c>
       <c r="H29" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J29" t="n">
         <v>538.3978373173468</v>
@@ -6472,43 +6472,43 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M29" t="n">
-        <v>2452.688555679948</v>
+        <v>2581.040336873682</v>
       </c>
       <c r="N29" t="n">
-        <v>2582.930975126825</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O29" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P29" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q29" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R29" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S29" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T29" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U29" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V29" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X29" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y29" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I30" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J30" t="n">
-        <v>427.5329807113339</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K30" t="n">
-        <v>428.4484422478856</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L30" t="n">
-        <v>1384.222442069854</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M30" t="n">
-        <v>1385.658903839324</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N30" t="n">
-        <v>1387.133384477507</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O30" t="n">
-        <v>1388.482246198269</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P30" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q30" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R30" t="n">
         <v>1765.290817548849</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3341.311860439009</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C31" t="n">
-        <v>3168.750148922234</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D31" t="n">
-        <v>3002.872156123756</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E31" t="n">
-        <v>2833.114152374494</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F31" t="n">
-        <v>2656.40709833625</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G31" t="n">
-        <v>2490.820672784662</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H31" t="n">
-        <v>2490.820672784662</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I31" t="n">
-        <v>2490.820672784662</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J31" t="n">
-        <v>2577.73638932794</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K31" t="n">
-        <v>2853.047046678857</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L31" t="n">
-        <v>3271.963557888175</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M31" t="n">
-        <v>3732.192466738241</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N31" t="n">
-        <v>4175.178596139395</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O31" t="n">
-        <v>4595.519648872222</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P31" t="n">
-        <v>4943.601386800484</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q31" t="n">
-        <v>5112.192153824797</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R31" t="n">
-        <v>5090.992380203819</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S31" t="n">
-        <v>5089.215279448101</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T31" t="n">
-        <v>4843.356553286689</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U31" t="n">
-        <v>4564.923817053753</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V31" t="n">
-        <v>4277.968308924183</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W31" t="n">
-        <v>4005.941904510475</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X31" t="n">
-        <v>3760.550149843888</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y31" t="n">
-        <v>3533.130479157996</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C32" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E32" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F32" t="n">
-        <v>792.6503003533094</v>
+        <v>792.6503003533098</v>
       </c>
       <c r="G32" t="n">
-        <v>391.2632799323574</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H32" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J32" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K32" t="n">
-        <v>104.4909776183048</v>
+        <v>594.4775803681265</v>
       </c>
       <c r="L32" t="n">
-        <v>1181.22304338293</v>
+        <v>1671.209646132752</v>
       </c>
       <c r="M32" t="n">
-        <v>2340.131411479404</v>
+        <v>2830.118014229226</v>
       </c>
       <c r="N32" t="n">
-        <v>2582.930975126825</v>
+        <v>3957.739635918817</v>
       </c>
       <c r="O32" t="n">
-        <v>3564.895917787388</v>
+        <v>4939.70457857938</v>
       </c>
       <c r="P32" t="n">
-        <v>4394.729484459995</v>
+        <v>4941.22827041859</v>
       </c>
       <c r="Q32" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R32" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S32" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T32" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U32" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V32" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X32" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y32" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I33" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J33" t="n">
-        <v>427.5329807113339</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K33" t="n">
-        <v>1099.730097307415</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L33" t="n">
-        <v>1100.961048318279</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M33" t="n">
-        <v>1102.397510087749</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N33" t="n">
-        <v>1103.871990725932</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O33" t="n">
-        <v>1105.220852446694</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P33" t="n">
         <v>1106.303432895356</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1040.747029661091</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C34" t="n">
-        <v>868.1853181443163</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D34" t="n">
-        <v>702.307325345839</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E34" t="n">
-        <v>532.5493215965762</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F34" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G34" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H34" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J34" t="n">
         <v>189.1595596197742</v>
@@ -6882,28 +6882,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R34" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S34" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T34" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U34" t="n">
-        <v>2018.967231609248</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V34" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W34" t="n">
-        <v>1459.98531906597</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X34" t="n">
-        <v>1459.98531906597</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y34" t="n">
-        <v>1232.565648380079</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.344732427938</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E35" t="n">
-        <v>1220.517729944101</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F35" t="n">
-        <v>792.6503003533094</v>
+        <v>792.6503003533103</v>
       </c>
       <c r="G35" t="n">
         <v>391.2632799323574</v>
       </c>
       <c r="H35" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J35" t="n">
         <v>538.3978373173468</v>
@@ -6943,46 +6943,46 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L35" t="n">
-        <v>2402.311635347513</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M35" t="n">
-        <v>3561.220003443987</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N35" t="n">
-        <v>3563.110641697132</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O35" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P35" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q35" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R35" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S35" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T35" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U35" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V35" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X35" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="36">
@@ -7010,13 +7010,13 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I36" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J36" t="n">
-        <v>427.5329807113339</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K36" t="n">
         <v>1099.730097307415</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1073.788011227439</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C37" t="n">
-        <v>901.2262997106642</v>
+        <v>643.9933370987061</v>
       </c>
       <c r="D37" t="n">
-        <v>735.3483069121869</v>
+        <v>478.1153443002288</v>
       </c>
       <c r="E37" t="n">
-        <v>565.5903031629241</v>
+        <v>308.3573405509661</v>
       </c>
       <c r="F37" t="n">
-        <v>388.8832491246803</v>
+        <v>131.6502865127223</v>
       </c>
       <c r="G37" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H37" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J37" t="n">
         <v>189.1595596197742</v>
@@ -7119,28 +7119,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R37" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S37" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T37" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U37" t="n">
-        <v>2297.399967842184</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V37" t="n">
-        <v>2010.444459712614</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W37" t="n">
-        <v>1738.418055298906</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X37" t="n">
-        <v>1493.026300632318</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y37" t="n">
-        <v>1265.606629946426</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G38" t="n">
-        <v>391.2632799323576</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H38" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J38" t="n">
-        <v>538.3978373173468</v>
+        <v>103.1431498644289</v>
       </c>
       <c r="K38" t="n">
-        <v>539.7456650712227</v>
+        <v>104.4909776183048</v>
       </c>
       <c r="L38" t="n">
-        <v>541.4177645829883</v>
+        <v>296.4009853407604</v>
       </c>
       <c r="M38" t="n">
         <v>1455.309353437234</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.930975126825</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O38" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P38" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q38" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R38" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S38" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T38" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U38" t="n">
         <v>4549.545294689023</v>
@@ -7247,28 +7247,28 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I39" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K39" t="n">
-        <v>784.6236373520505</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L39" t="n">
-        <v>785.8545883629148</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M39" t="n">
-        <v>787.2910501323851</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N39" t="n">
-        <v>788.7655307705678</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O39" t="n">
-        <v>790.1143924913305</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P39" t="n">
         <v>1106.303432895356</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.108203127648</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.546491610873</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D40" t="n">
-        <v>842.6684988123955</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E40" t="n">
-        <v>672.9104950631327</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F40" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G40" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H40" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J40" t="n">
         <v>189.1595596197742</v>
@@ -7356,28 +7356,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R40" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S40" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T40" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.967231609248</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.967231609248</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.738247199114</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.346492532527</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y40" t="n">
-        <v>1372.926821846635</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F41" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G41" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H41" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J41" t="n">
         <v>538.3978373173468</v>
@@ -7417,31 +7417,31 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L41" t="n">
-        <v>2433.628487121617</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M41" t="n">
-        <v>2435.48902000754</v>
+        <v>2750.194401626738</v>
       </c>
       <c r="N41" t="n">
-        <v>3563.110641697132</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O41" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P41" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q41" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R41" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S41" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T41" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U41" t="n">
         <v>4549.545294689023</v>
@@ -7450,13 +7450,13 @@
         <v>4186.928344622849</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I42" t="n">
         <v>128.5027079435546</v>
@@ -7493,25 +7493,25 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K42" t="n">
-        <v>1135.24563547872</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L42" t="n">
-        <v>1136.476586489585</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M42" t="n">
-        <v>1137.913048259055</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N42" t="n">
-        <v>1139.387528897238</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O42" t="n">
-        <v>1140.736390618001</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P42" t="n">
-        <v>1141.818971066662</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q42" t="n">
-        <v>1683.281586059109</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R42" t="n">
         <v>1765.290817548849</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.108203127648</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.546491610873</v>
+        <v>643.9933370987061</v>
       </c>
       <c r="D43" t="n">
-        <v>842.6684988123955</v>
+        <v>478.1153443002288</v>
       </c>
       <c r="E43" t="n">
-        <v>672.9104950631327</v>
+        <v>308.3573405509661</v>
       </c>
       <c r="F43" t="n">
-        <v>496.2034410248889</v>
+        <v>131.6502865127223</v>
       </c>
       <c r="G43" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H43" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J43" t="n">
         <v>189.1595596197742</v>
@@ -7593,28 +7593,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R43" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S43" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T43" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.967231609248</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V43" t="n">
-        <v>1732.011723479679</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W43" t="n">
-        <v>1459.98531906597</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X43" t="n">
-        <v>1214.593564399383</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y43" t="n">
-        <v>1181.108203127648</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E44" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F44" t="n">
         <v>792.6503003533097</v>
@@ -7651,25 +7651,25 @@
         <v>103.1431498644289</v>
       </c>
       <c r="K44" t="n">
-        <v>104.4909776183048</v>
+        <v>938.8412695764827</v>
       </c>
       <c r="L44" t="n">
-        <v>1181.22304338293</v>
+        <v>2015.573335341108</v>
       </c>
       <c r="M44" t="n">
-        <v>2340.131411479404</v>
+        <v>2170.962204148885</v>
       </c>
       <c r="N44" t="n">
-        <v>3467.753033168996</v>
+        <v>3298.583825838477</v>
       </c>
       <c r="O44" t="n">
-        <v>3564.895917787388</v>
+        <v>4280.548768499039</v>
       </c>
       <c r="P44" t="n">
-        <v>4394.729484459996</v>
+        <v>5110.382335171646</v>
       </c>
       <c r="Q44" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R44" t="n">
         <v>5112.192153824798</v>
@@ -7693,7 +7693,7 @@
         <v>3362.930426613194</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.730097307415</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.961048318279</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.397510087749</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.871990725932</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O45" t="n">
-        <v>1105.220852446694</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P45" t="n">
         <v>1106.303432895356</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>795.3552749945038</v>
+        <v>845.4722065799077</v>
       </c>
       <c r="C46" t="n">
-        <v>622.7935634777288</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9155706792515</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5373226663279</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="F46" t="n">
-        <v>267.8302686280841</v>
+        <v>496.2034410248889</v>
       </c>
       <c r="G46" t="n">
-        <v>102.243843076496</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H46" t="n">
-        <v>102.243843076496</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I46" t="n">
         <v>102.243843076496</v>
@@ -7830,28 +7830,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R46" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S46" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T46" t="n">
-        <v>2297.399967842184</v>
+        <v>2347.516899427587</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.967231609248</v>
+        <v>2069.084163194652</v>
       </c>
       <c r="V46" t="n">
-        <v>1732.011723479679</v>
+        <v>1782.128655065083</v>
       </c>
       <c r="W46" t="n">
-        <v>1459.98531906597</v>
+        <v>1510.102250651374</v>
       </c>
       <c r="X46" t="n">
-        <v>1214.593564399383</v>
+        <v>1264.710495984787</v>
       </c>
       <c r="Y46" t="n">
-        <v>987.173893713491</v>
+        <v>1037.290825298895</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8151,7 +8151,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>10.62009379123668</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>22.46314417750875</v>
       </c>
       <c r="O5" t="n">
-        <v>598.6708407308731</v>
+        <v>598.670840730872</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308731</v>
+        <v>598.670840730872</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="L6" t="n">
-        <v>598.6708407308731</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>535.1683742658273</v>
+        <v>62.64839828501044</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,13 +8385,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>174.1301908281446</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>165.8754190881359</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1068.545889475203</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320545</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>279.4828019566188</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.48206052831688</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>192.1595032431221</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1036.912705864997</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>651.7353352515872</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>842.4530608817761</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>249.3281098618204</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>129.6482638320526</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>706.271361556619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>70.67339406359224</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>300.5109555018084</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>296.2521127685684</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>151.5688286728135</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>129.6482638320526</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>129.6482638320545</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>296.2521127685684</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>665.7986540433109</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>46.83223458185876</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>651.7353352515872</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>129.6482638320535</v>
       </c>
       <c r="N29" t="n">
-        <v>129.6482638320526</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>378.4346696715561</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>55.28476292616551</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,16 +10360,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>243.3423488831077</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>678.062277837908</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,16 +10591,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1036.912705864997</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>129.6482638320535</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>678.062277837908</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>192.1595032431212</v>
       </c>
       <c r="M38" t="n">
-        <v>921.243490877093</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.2893534902666</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1068.545889475203</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>82.48206052831688</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>155.0791271937921</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>96.32081669508807</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>651.7353352515872</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.32858900799708</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I13" t="n">
         <v>87.62897272389382</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>112.5892584822412</v>
+        <v>115.7133623160136</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>53.74562468524772</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9305612960722</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.8059581789758</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>112.5892584822412</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>109.0594373726586</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>117.5074840672471</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>126.2060024161485</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I28" t="n">
         <v>87.62897272389382</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>155.8059581789763</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9575617318909</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>106.2469899812064</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.80944580353875</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.9949663200152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>155.8059581789758</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>28.62798638478205</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>478877.5624822581</v>
+        <v>478877.562482258</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515621.5787893951</v>
+        <v>515621.5787893952</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>515621.5787893952</v>
+        <v>515621.5787893951</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>515621.5787893951</v>
+        <v>515621.5787893952</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515621.5787893951</v>
+        <v>515621.5787893952</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>515621.5787893951</v>
+        <v>515621.5787893952</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="E2" t="n">
-        <v>513807.2845600159</v>
+        <v>513807.2845600158</v>
       </c>
       <c r="F2" t="n">
-        <v>513807.2845600158</v>
+        <v>513807.2845600157</v>
       </c>
       <c r="G2" t="n">
-        <v>513807.2845600158</v>
+        <v>513807.2845600157</v>
       </c>
       <c r="H2" t="n">
         <v>513807.2845600158</v>
       </c>
       <c r="I2" t="n">
-        <v>513807.2845600159</v>
+        <v>513807.2845600157</v>
       </c>
       <c r="J2" t="n">
-        <v>513807.2845600159</v>
+        <v>513807.2845600158</v>
       </c>
       <c r="K2" t="n">
         <v>513807.2845600158</v>
@@ -26352,7 +26352,7 @@
         <v>513807.2845600158</v>
       </c>
       <c r="O2" t="n">
-        <v>513807.2845600159</v>
+        <v>513807.2845600158</v>
       </c>
       <c r="P2" t="n">
         <v>513807.2845600158</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>56335.44544714158</v>
+        <v>56335.44544714121</v>
       </c>
       <c r="D3" t="n">
-        <v>21385.12537236747</v>
+        <v>21385.12537236782</v>
       </c>
       <c r="E3" t="n">
-        <v>184430.5981858013</v>
+        <v>184430.5981858014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>44878.54067898916</v>
+        <v>44878.54067898892</v>
       </c>
       <c r="L3" t="n">
-        <v>17423.8894041717</v>
+        <v>17423.88940417199</v>
       </c>
       <c r="M3" t="n">
-        <v>152147.2238279343</v>
+        <v>152147.2238279344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>192623.6608176004</v>
+        <v>192623.6608176006</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26432,10 +26432,10 @@
         <v>108017.0511911513</v>
       </c>
       <c r="G4" t="n">
-        <v>108017.0511911513</v>
+        <v>108017.0511911512</v>
       </c>
       <c r="H4" t="n">
-        <v>108017.0511911513</v>
+        <v>108017.0511911512</v>
       </c>
       <c r="I4" t="n">
         <v>108017.0511911513</v>
@@ -26472,43 +26472,43 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>70026.78711643707</v>
+        <v>70026.78711643702</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750948</v>
       </c>
       <c r="F5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750948</v>
       </c>
       <c r="G5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750948</v>
       </c>
       <c r="H5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750948</v>
       </c>
       <c r="I5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750948</v>
       </c>
       <c r="J5" t="n">
         <v>77763.35959750945</v>
       </c>
       <c r="K5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="L5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="M5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="N5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="O5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="P5" t="n">
         <v>77763.35959750946</v>
@@ -26524,46 +26524,46 @@
         <v>102902.2820636469</v>
       </c>
       <c r="C6" t="n">
-        <v>203757.7435119691</v>
+        <v>203757.7435119697</v>
       </c>
       <c r="D6" t="n">
-        <v>244630.0046856953</v>
+        <v>244630.0046856952</v>
       </c>
       <c r="E6" t="n">
-        <v>143596.2755855538</v>
+        <v>143573.3618616225</v>
       </c>
       <c r="F6" t="n">
-        <v>328026.8737713551</v>
+        <v>328003.9600474238</v>
       </c>
       <c r="G6" t="n">
-        <v>328026.8737713551</v>
+        <v>328003.9600474238</v>
       </c>
       <c r="H6" t="n">
-        <v>328026.8737713551</v>
+        <v>328003.960047424</v>
       </c>
       <c r="I6" t="n">
-        <v>328026.8737713552</v>
+        <v>328003.9600474238</v>
       </c>
       <c r="J6" t="n">
-        <v>217012.4084263649</v>
+        <v>216989.4947024338</v>
       </c>
       <c r="K6" t="n">
-        <v>283148.3330923659</v>
+        <v>283125.419368435</v>
       </c>
       <c r="L6" t="n">
-        <v>310602.9843671835</v>
+        <v>310580.0706432519</v>
       </c>
       <c r="M6" t="n">
-        <v>175879.6499434208</v>
+        <v>175856.7362194896</v>
       </c>
       <c r="N6" t="n">
-        <v>328026.8737713551</v>
+        <v>328003.9600474239</v>
       </c>
       <c r="O6" t="n">
-        <v>328026.8737713552</v>
+        <v>328003.9600474239</v>
       </c>
       <c r="P6" t="n">
-        <v>328026.873771355</v>
+        <v>328003.9600474239</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="K3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="L3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="M3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="N3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>598.6708407308731</v>
+        <v>598.670840730872</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.048038456199</v>
+        <v>1278.0480384562</v>
       </c>
       <c r="J4" t="n">
         <v>1278.048038456199</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>174.3749832107688</v>
+        <v>174.3749832107677</v>
       </c>
       <c r="D4" t="n">
-        <v>68.84436587698377</v>
+        <v>68.84436587698491</v>
       </c>
       <c r="E4" t="n">
-        <v>610.5328318483423</v>
+        <v>610.5328318483428</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201039</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107688</v>
+        <v>174.3749832107679</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698377</v>
+        <v>68.84436587698491</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483423</v>
+        <v>610.5328318483428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107688</v>
+        <v>174.3749832107677</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698377</v>
+        <v>68.84436587698491</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483423</v>
+        <v>610.5328318483428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>12.57673674162129</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>368.1544541610767</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>254.6135938978163</v>
+        <v>175.4724511961017</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>239.9677097641774</v>
+        <v>237.0134651184762</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>95.97124990361058</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>183.4607489906153</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>33.35105993462395</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.085407306808377e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-7.245758270877792e-14</v>
       </c>
     </row>
     <row r="24">
@@ -31761,7 +31761,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K11" t="n">
         <v>1.361442175632203</v>
@@ -31770,7 +31770,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N11" t="n">
         <v>1.909735609237095</v>
@@ -31785,16 +31785,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S11" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H12" t="n">
         <v>0.05530620059647288</v>
@@ -31843,7 +31843,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L12" t="n">
         <v>1.243384859458851</v>
@@ -31861,19 +31861,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R12" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T12" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J13" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N13" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R13" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T13" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K14" t="n">
         <v>1.361442175632203</v>
@@ -32007,7 +32007,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N14" t="n">
         <v>1.909735609237095</v>
@@ -32022,16 +32022,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S14" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H15" t="n">
         <v>0.05530620059647288</v>
@@ -32080,7 +32080,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L15" t="n">
         <v>1.243384859458851</v>
@@ -32098,19 +32098,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R15" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S15" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T15" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J16" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N16" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R16" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S16" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T16" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
@@ -32244,7 +32244,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
         <v>1.909735609237095</v>
@@ -32259,16 +32259,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S17" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H18" t="n">
         <v>0.05530620059647288</v>
@@ -32317,7 +32317,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -32335,19 +32335,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R18" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T18" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J19" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N19" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R19" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T19" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K20" t="n">
         <v>1.361442175632203</v>
@@ -32481,7 +32481,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N20" t="n">
         <v>1.909735609237095</v>
@@ -32496,16 +32496,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S20" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H21" t="n">
         <v>0.05530620059647288</v>
@@ -32554,7 +32554,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458851</v>
@@ -32572,19 +32572,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R21" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T21" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J22" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N22" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R22" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T22" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K23" t="n">
         <v>1.361442175632203</v>
@@ -32718,7 +32718,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N23" t="n">
         <v>1.909735609237095</v>
@@ -32733,16 +32733,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S23" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H24" t="n">
         <v>0.05530620059647288</v>
@@ -32791,7 +32791,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458851</v>
@@ -32809,19 +32809,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R24" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S24" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T24" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J25" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N25" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R25" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T25" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K26" t="n">
         <v>1.361442175632203</v>
@@ -32955,7 +32955,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N26" t="n">
         <v>1.909735609237095</v>
@@ -32970,16 +32970,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S26" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H27" t="n">
         <v>0.05530620059647288</v>
@@ -33028,7 +33028,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L27" t="n">
         <v>1.243384859458851</v>
@@ -33046,19 +33046,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R27" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T27" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J28" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N28" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R28" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T28" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K29" t="n">
         <v>1.361442175632203</v>
@@ -33192,7 +33192,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N29" t="n">
         <v>1.909735609237095</v>
@@ -33207,16 +33207,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S29" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H30" t="n">
         <v>0.05530620059647288</v>
@@ -33265,7 +33265,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L30" t="n">
         <v>1.243384859458851</v>
@@ -33283,19 +33283,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R30" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T30" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J31" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N31" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R31" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T31" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K32" t="n">
         <v>1.361442175632203</v>
@@ -33429,7 +33429,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N32" t="n">
         <v>1.909735609237095</v>
@@ -33444,16 +33444,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S32" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T32" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H33" t="n">
         <v>0.05530620059647288</v>
@@ -33502,7 +33502,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L33" t="n">
         <v>1.243384859458851</v>
@@ -33520,19 +33520,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R33" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S33" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T33" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J34" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N34" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R34" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S34" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T34" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K35" t="n">
         <v>1.361442175632203</v>
@@ -33666,7 +33666,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N35" t="n">
         <v>1.909735609237095</v>
@@ -33681,16 +33681,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S35" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H36" t="n">
         <v>0.05530620059647288</v>
@@ -33739,7 +33739,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458851</v>
@@ -33757,19 +33757,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R36" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S36" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T36" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J37" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N37" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R37" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S37" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T37" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K38" t="n">
         <v>1.361442175632203</v>
@@ -33903,7 +33903,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N38" t="n">
         <v>1.909735609237095</v>
@@ -33918,16 +33918,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S38" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H39" t="n">
         <v>0.05530620059647288</v>
@@ -33976,7 +33976,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L39" t="n">
         <v>1.243384859458851</v>
@@ -33994,19 +33994,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R39" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S39" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T39" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J40" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N40" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R40" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S40" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T40" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K41" t="n">
         <v>1.361442175632203</v>
@@ -34140,7 +34140,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N41" t="n">
         <v>1.909735609237095</v>
@@ -34155,16 +34155,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S41" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T41" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H42" t="n">
         <v>0.05530620059647288</v>
@@ -34213,7 +34213,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L42" t="n">
         <v>1.243384859458851</v>
@@ -34231,19 +34231,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R42" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T42" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J43" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N43" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R43" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T43" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817444</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K44" t="n">
         <v>1.361442175632203</v>
@@ -34377,7 +34377,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N44" t="n">
         <v>1.909735609237095</v>
@@ -34392,16 +34392,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6723126642497282</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S44" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04685170935471609</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H45" t="n">
         <v>0.05530620059647288</v>
@@ -34450,7 +34450,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L45" t="n">
         <v>1.243384859458851</v>
@@ -34468,19 +34468,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7309862225975234</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R45" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T45" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04268461758636078</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J46" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7525673425783418</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N46" t="n">
-        <v>0.734672973242547</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6785894010559684</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5806504625449317</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R46" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>0.083667087845658</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T46" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34871,7 +34871,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>10.62009379123668</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>22.46314417750875</v>
       </c>
       <c r="O5" t="n">
-        <v>598.6708407308731</v>
+        <v>598.670840730872</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308731</v>
+        <v>598.670840730872</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="L6" t="n">
-        <v>598.6708407308731</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>535.1683742658273</v>
+        <v>62.64839828501044</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35105,13 +35105,13 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>174.1301908281446</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>165.8754190881359</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L11" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M11" t="n">
-        <v>1070.4252156226</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N11" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412915</v>
       </c>
       <c r="O11" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P11" t="n">
         <v>838.2157239117246</v>
@@ -35488,19 +35488,19 @@
         <v>26.52410592632187</v>
       </c>
       <c r="J12" t="n">
-        <v>328.3777231598353</v>
+        <v>280.0238332313911</v>
       </c>
       <c r="K12" t="n">
-        <v>688.5343248554839</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243384859458956</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M12" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002779</v>
+        <v>1247.779547675242</v>
       </c>
       <c r="O12" t="n">
         <v>1.362486586628847</v>
@@ -35509,10 +35509,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.9319343358052</v>
+        <v>0.7309862225974939</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83760756539391</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>440.5595901422736</v>
+        <v>0.9083906948817457</v>
       </c>
       <c r="K14" t="n">
-        <v>844.1395148606605</v>
+        <v>1.361442175632206</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405824032</v>
+        <v>193.848492648946</v>
       </c>
       <c r="M14" t="n">
         <v>1170.614513228762</v>
       </c>
       <c r="N14" t="n">
-        <v>1038.822441474234</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P14" t="n">
         <v>838.2157239117246</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.52410592632187</v>
+        <v>0.1971633400010546</v>
       </c>
       <c r="J15" t="n">
-        <v>328.3777231598353</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K15" t="n">
-        <v>652.6600438743667</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458956</v>
+        <v>843.696445741235</v>
       </c>
       <c r="M15" t="n">
         <v>1.450971484313413</v>
@@ -35740,16 +35740,16 @@
         <v>1.489374382002779</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628961</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604708955</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.9319343358052</v>
+        <v>0.7309862225974939</v>
       </c>
       <c r="R15" t="n">
-        <v>118.7118885465111</v>
+        <v>0.3555470370770308</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L17" t="n">
-        <v>1087.608147236995</v>
+        <v>251.0170992676444</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397023</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N17" t="n">
-        <v>131.5579994412897</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O17" t="n">
         <v>991.8837804652144</v>
@@ -35907,7 +35907,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R17" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L18" t="n">
-        <v>965.4282826484528</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M18" t="n">
         <v>1.450971484313413</v>
@@ -35980,13 +35980,13 @@
         <v>1.362486586628847</v>
       </c>
       <c r="P18" t="n">
-        <v>707.364877161328</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L20" t="n">
-        <v>72.36238346941627</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M20" t="n">
-        <v>1170.614513228762</v>
+        <v>302.3902816492055</v>
       </c>
       <c r="N20" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O20" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P20" t="n">
         <v>838.2157239117246</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723225</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K21" t="n">
-        <v>297.1768213913479</v>
+        <v>0.9247086227794341</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458843</v>
@@ -36214,7 +36214,7 @@
         <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628904</v>
+        <v>152.9313152594424</v>
       </c>
       <c r="P21" t="n">
         <v>829.0967140685456</v>
@@ -36223,7 +36223,7 @@
         <v>546.9319343358052</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M23" t="n">
-        <v>131.5275899794497</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609237032</v>
+        <v>131.5579994412915</v>
       </c>
       <c r="O23" t="n">
         <v>991.8837804652144</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K24" t="n">
-        <v>297.1768213913479</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L24" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M24" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O24" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P24" t="n">
-        <v>829.0967140685456</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q24" t="n">
         <v>546.9319343358052</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K26" t="n">
-        <v>667.1600962189431</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L26" t="n">
-        <v>1087.608147236995</v>
+        <v>48.52122398768279</v>
       </c>
       <c r="M26" t="n">
         <v>1170.614513228762</v>
       </c>
       <c r="N26" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O26" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K27" t="n">
-        <v>652.6600438743667</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458956</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M27" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P27" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q27" t="n">
         <v>546.9319343358052</v>
@@ -36840,10 +36840,10 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397023</v>
+        <v>131.5275899794506</v>
       </c>
       <c r="N29" t="n">
-        <v>131.5579994412897</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O29" t="n">
         <v>991.8837804652144</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J30" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L30" t="n">
-        <v>965.4282826484526</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M30" t="n">
         <v>1.450971484313413</v>
@@ -36928,13 +36928,13 @@
         <v>1.362486586628847</v>
       </c>
       <c r="P30" t="n">
-        <v>379.528185276265</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.79365307401849</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K31" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L31" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M31" t="n">
         <v>464.8776857071371</v>
@@ -37007,10 +37007,10 @@
         <v>424.5869219523502</v>
       </c>
       <c r="P31" t="n">
-        <v>351.5977150790523</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q31" t="n">
-        <v>170.2937040649631</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632206</v>
+        <v>56.6462051017977</v>
       </c>
       <c r="L32" t="n">
         <v>1087.608147236995</v>
@@ -37080,16 +37080,16 @@
         <v>1170.614513228762</v>
       </c>
       <c r="N32" t="n">
-        <v>245.2520844923447</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O32" t="n">
         <v>991.8837804652144</v>
       </c>
       <c r="P32" t="n">
-        <v>838.2157239117246</v>
+        <v>1.5390826658695</v>
       </c>
       <c r="Q32" t="n">
-        <v>553.17476270115</v>
+        <v>1.155786985397754</v>
       </c>
       <c r="R32" t="n">
         <v>171.535004334004</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J33" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K33" t="n">
-        <v>678.9869864606875</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458956</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M33" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N33" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O33" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P33" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q33" t="n">
         <v>546.9319343358052</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K34" t="n">
         <v>278.0915730817343</v>
@@ -37311,16 +37311,16 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L35" t="n">
-        <v>1038.601695270821</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M35" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N35" t="n">
-        <v>1.909735609237032</v>
+        <v>131.5579994412906</v>
       </c>
       <c r="O35" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P35" t="n">
         <v>838.2157239117246</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J36" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K36" t="n">
-        <v>678.9869864606875</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458956</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K37" t="n">
         <v>278.0915730817343</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>440.5595901422736</v>
+        <v>0.9083906948817457</v>
       </c>
       <c r="K38" t="n">
-        <v>1.361442175632192</v>
+        <v>1.361442175632206</v>
       </c>
       <c r="L38" t="n">
-        <v>1.688989405823918</v>
+        <v>193.8484926489451</v>
       </c>
       <c r="M38" t="n">
-        <v>923.1228170244902</v>
+        <v>1170.614513228762</v>
       </c>
       <c r="N38" t="n">
         <v>1139.011739080396</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K39" t="n">
-        <v>688.5343248554839</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L39" t="n">
         <v>1.243384859458843</v>
       </c>
       <c r="M39" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N39" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O39" t="n">
-        <v>1.362486586628961</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P39" t="n">
-        <v>319.3828690949756</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q39" t="n">
         <v>546.9319343358052</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
@@ -37785,16 +37785,16 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L41" t="n">
-        <v>1070.234878881027</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397023</v>
+        <v>302.3902816492046</v>
       </c>
       <c r="N41" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O41" t="n">
-        <v>1.803309182076191</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P41" t="n">
         <v>838.2157239117246</v>
@@ -37803,7 +37803,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R41" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J42" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K42" t="n">
-        <v>688.5343248554839</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458956</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M42" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N42" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O42" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q42" t="n">
         <v>546.9319343358052</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83760756539391</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K43" t="n">
         <v>278.0915730817343</v>
@@ -38019,28 +38019,28 @@
         <v>0.9083906948817457</v>
       </c>
       <c r="K44" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L44" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M44" t="n">
-        <v>1170.614513228762</v>
+        <v>156.9584533411894</v>
       </c>
       <c r="N44" t="n">
         <v>1139.011739080396</v>
       </c>
       <c r="O44" t="n">
-        <v>98.12412587716426</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P44" t="n">
-        <v>838.2157239117246</v>
+        <v>838.215723911725</v>
       </c>
       <c r="Q44" t="n">
-        <v>553.17476270115</v>
+        <v>1.155786985397754</v>
       </c>
       <c r="R44" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K45" t="n">
-        <v>652.6600438743667</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L45" t="n">
-        <v>1.243384859458956</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M45" t="n">
-        <v>1.450971484313413</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N45" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P45" t="n">
-        <v>1.093515604708955</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q45" t="n">
         <v>546.9319343358052</v>
